--- a/openxlsx/loadExample.xlsx
+++ b/openxlsx/loadExample.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24525" windowHeight="7965"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24525" windowHeight="7965" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="IrisSample" sheetId="1" r:id="rId1"/>
@@ -216,7 +216,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -229,8 +229,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="17">
+  <borders count="58">
     <border>
       <left/>
       <right/>
@@ -398,12 +404,559 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color theme="5" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="5" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color theme="5" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color theme="5" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color theme="5" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color theme="5" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color theme="5" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="5" tint="-0.249977111117893"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="5" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color theme="3"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="3"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color theme="3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color theme="3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color theme="5" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="medium">
+        <color theme="3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color theme="5" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="medium">
+        <color theme="6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color theme="6"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="6"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color theme="6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color theme="6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color theme="6"/>
+      </right>
+      <top style="medium">
+        <color theme="6"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color theme="6"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color theme="6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="5" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color theme="5" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="medium">
+        <color theme="7" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color theme="5" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="medium">
+        <color theme="7" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="5" tint="-0.249977111117893"/>
+      </left>
+      <right style="medium">
+        <color theme="7" tint="-0.249977111117893"/>
+      </right>
+      <top style="medium">
+        <color theme="7" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="5" tint="-0.249977111117893"/>
+      </left>
+      <right style="medium">
+        <color theme="7" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color theme="5" tint="-0.249977111117893"/>
+      </right>
+      <top style="thick">
+        <color theme="5" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="medium">
+        <color theme="9" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color theme="5" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="medium">
+        <color theme="9" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color theme="9" tint="-0.249977111117893"/>
+      </right>
+      <top style="medium">
+        <color theme="9" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color theme="9" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="9" tint="-0.249977111117893"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="9" tint="-0.249977111117893"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="9" tint="-0.249977111117893"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="9" tint="-0.249977111117893"/>
+      </right>
+      <top style="medium">
+        <color theme="9" tint="-0.249977111117893"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="9" tint="-0.249977111117893"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="9" tint="-0.249977111117893"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="9" tint="-0.249977111117893"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="9" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="9" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="9" tint="-0.249977111117893"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="9" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="mediumDashed">
+        <color theme="9" tint="-0.249977111117893"/>
+      </left>
+      <right/>
+      <top style="mediumDashed">
+        <color theme="9" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="mediumDashed">
+        <color theme="9" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="mediumDashed">
+        <color theme="9" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="mediumDashed">
+        <color theme="9" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="mediumDashed">
+        <color theme="9" tint="-0.249977111117893"/>
+      </right>
+      <top style="mediumDashed">
+        <color theme="9" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="mediumDashed">
+        <color theme="9" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -463,6 +1016,47 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -770,11 +1364,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="179402928"/>
-        <c:axId val="179403488"/>
+        <c:axId val="177272784"/>
+        <c:axId val="177273328"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="179402928"/>
+        <c:axId val="177272784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -830,12 +1424,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="179403488"/>
+        <c:crossAx val="177273328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="179403488"/>
+        <c:axId val="177273328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -892,7 +1486,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="179402928"/>
+        <c:crossAx val="177272784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1218,11 +1812,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="179407408"/>
-        <c:axId val="179407968"/>
+        <c:axId val="174339696"/>
+        <c:axId val="174340256"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="179407408"/>
+        <c:axId val="174339696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1265,7 +1859,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="179407968"/>
+        <c:crossAx val="174340256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1273,7 +1867,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="179407968"/>
+        <c:axId val="174340256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1324,7 +1918,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="179407408"/>
+        <c:crossAx val="174339696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1338,7 +1932,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4158,7 +4751,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5139,9 +5732,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:Q34"/>
+  <dimension ref="B2:Q38"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5156,27 +5749,27 @@
       <c r="F2" s="25"/>
       <c r="I2">
         <f t="shared" ref="I2:N5" ca="1" si="0">RAND()</f>
-        <v>0.1200098697628279</v>
+        <v>2.1211775296413049E-2</v>
       </c>
       <c r="J2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.99941505304699063</v>
+        <v>0.36238269284756286</v>
       </c>
       <c r="K2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.33238329441786285</v>
+        <v>0.4179348466232885</v>
       </c>
       <c r="L2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.50935374906320963</v>
+        <v>1.9957991471349912E-3</v>
       </c>
       <c r="M2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.43374151260716243</v>
+        <v>0.27074290538522572</v>
       </c>
       <c r="N2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.78480884247246463</v>
+        <v>0.2649840322391942</v>
       </c>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.25">
@@ -5187,27 +5780,27 @@
       <c r="F3" s="28"/>
       <c r="I3">
         <f t="shared" ca="1" si="0"/>
-        <v>6.1779982427113578E-2</v>
+        <v>0.54173332264029783</v>
       </c>
       <c r="J3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.11359390354749566</v>
+        <v>0.38878100760088752</v>
       </c>
       <c r="K3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.45161976460862163</v>
+        <v>0.79808537660228029</v>
       </c>
       <c r="L3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.5510910412790978</v>
+        <v>0.55660883724632737</v>
       </c>
       <c r="M3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.88608414121684409</v>
+        <v>0.66701293339221501</v>
       </c>
       <c r="N3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.74070843448639578</v>
+        <v>0.14532555363434596</v>
       </c>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.25">
@@ -5218,27 +5811,27 @@
       <c r="F4" s="28"/>
       <c r="I4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.85629450806630725</v>
+        <v>9.5693119051864062E-2</v>
       </c>
       <c r="J4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.90230316078515482</v>
+        <v>0.20964299765376693</v>
       </c>
       <c r="K4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.4834637563117079</v>
+        <v>0.86796587246200652</v>
       </c>
       <c r="L4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.86608230987280455</v>
+        <v>2.1426862731514396E-2</v>
       </c>
       <c r="M4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.280284896790718</v>
+        <v>0.71629735634319103</v>
       </c>
       <c r="N4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.82991252940768745</v>
+        <v>0.76458163284334435</v>
       </c>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.25">
@@ -5249,27 +5842,27 @@
       <c r="F5" s="28"/>
       <c r="I5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.74472631567722714</v>
+        <v>0.12078568149512847</v>
       </c>
       <c r="J5">
         <f t="shared" ca="1" si="0"/>
-        <v>9.9524787443150964E-2</v>
+        <v>0.60831876756458547</v>
       </c>
       <c r="K5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.62328821787698097</v>
+        <v>0.98215511252064946</v>
       </c>
       <c r="L5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.30523697689060403</v>
+        <v>0.19344029870818413</v>
       </c>
       <c r="M5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.32246177709537016</v>
+        <v>0.32872290981933239</v>
       </c>
       <c r="N5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.7046349837130188</v>
+        <v>0.15638833007121067</v>
       </c>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.25">
@@ -5530,33 +6123,174 @@
       </c>
       <c r="D26" s="32"/>
     </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D27" s="32"/>
     </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="D28" s="63"/>
+      <c r="E28" s="64"/>
+      <c r="F28" s="64"/>
+      <c r="G28" s="64"/>
+      <c r="H28" s="64"/>
+      <c r="I28" s="64"/>
+      <c r="J28" s="64"/>
+      <c r="K28" s="64"/>
+      <c r="L28" s="64"/>
+      <c r="M28" s="64"/>
+      <c r="N28" s="64"/>
+      <c r="O28" s="64"/>
+      <c r="P28" s="65"/>
+    </row>
+    <row r="29" spans="2:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="2" t="s">
         <v>24</v>
       </c>
+      <c r="D29" s="66"/>
+      <c r="E29" s="51"/>
+      <c r="F29" s="52"/>
+      <c r="G29" s="38"/>
+      <c r="H29" s="44"/>
+      <c r="I29" s="44"/>
+      <c r="J29" s="38"/>
+      <c r="K29" s="45"/>
+      <c r="L29" s="45"/>
+      <c r="M29" s="38"/>
+      <c r="N29" s="55"/>
+      <c r="O29" s="56"/>
+      <c r="P29" s="67"/>
     </row>
     <row r="30" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B30" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="D30" s="66"/>
+      <c r="E30" s="53"/>
+      <c r="F30" s="33"/>
+      <c r="G30" s="41"/>
+      <c r="H30" s="33"/>
+      <c r="I30" s="36"/>
+      <c r="J30" s="46"/>
+      <c r="K30" s="33"/>
+      <c r="L30" s="34"/>
+      <c r="M30" s="35"/>
+      <c r="N30" s="57"/>
+      <c r="O30" s="39"/>
+      <c r="P30" s="67"/>
+    </row>
+    <row r="31" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D31" s="66"/>
+      <c r="E31" s="54"/>
+      <c r="F31" s="37"/>
+      <c r="G31" s="41"/>
+      <c r="H31" s="42"/>
+      <c r="I31" s="35"/>
+      <c r="J31" s="46"/>
+      <c r="K31" s="47"/>
+      <c r="L31" s="48"/>
+      <c r="M31" s="35"/>
+      <c r="N31" s="58"/>
+      <c r="O31" s="40"/>
+      <c r="P31" s="67"/>
+    </row>
+    <row r="32" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="D32" s="66"/>
+      <c r="E32" s="54"/>
+      <c r="F32" s="37"/>
+      <c r="G32" s="41"/>
+      <c r="H32" s="33"/>
+      <c r="I32" s="35"/>
+      <c r="J32" s="35"/>
+      <c r="K32" s="36"/>
+      <c r="L32" s="49"/>
+      <c r="M32" s="37"/>
+      <c r="N32" s="58"/>
+      <c r="O32" s="40"/>
+      <c r="P32" s="67"/>
+    </row>
+    <row r="33" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="17" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="D33" s="66"/>
+      <c r="E33" s="54"/>
+      <c r="F33" s="37"/>
+      <c r="G33" s="41"/>
+      <c r="H33" s="42"/>
+      <c r="I33" s="43"/>
+      <c r="J33" s="35"/>
+      <c r="K33" s="48"/>
+      <c r="L33" s="50"/>
+      <c r="M33" s="37"/>
+      <c r="N33" s="58"/>
+      <c r="O33" s="40"/>
+      <c r="P33" s="67"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B34" s="17" t="s">
         <v>25</v>
       </c>
+      <c r="D34" s="66"/>
+      <c r="E34" s="54"/>
+      <c r="F34" s="37"/>
+      <c r="G34" s="35"/>
+      <c r="H34" s="36"/>
+      <c r="I34" s="36"/>
+      <c r="J34" s="35"/>
+      <c r="K34" s="36"/>
+      <c r="L34" s="34"/>
+      <c r="M34" s="35"/>
+      <c r="N34" s="58"/>
+      <c r="O34" s="40"/>
+      <c r="P34" s="67"/>
+    </row>
+    <row r="35" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D35" s="66"/>
+      <c r="E35" s="59"/>
+      <c r="F35" s="60"/>
+      <c r="G35" s="60"/>
+      <c r="H35" s="60"/>
+      <c r="I35" s="60"/>
+      <c r="J35" s="60"/>
+      <c r="K35" s="60"/>
+      <c r="L35" s="61"/>
+      <c r="M35" s="60"/>
+      <c r="N35" s="60"/>
+      <c r="O35" s="62"/>
+      <c r="P35" s="67"/>
+    </row>
+    <row r="36" spans="2:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D36" s="68"/>
+      <c r="E36" s="69"/>
+      <c r="F36" s="69"/>
+      <c r="G36" s="69"/>
+      <c r="H36" s="69"/>
+      <c r="I36" s="69"/>
+      <c r="J36" s="69"/>
+      <c r="K36" s="69"/>
+      <c r="L36" s="69"/>
+      <c r="M36" s="69"/>
+      <c r="N36" s="69"/>
+      <c r="O36" s="69"/>
+      <c r="P36" s="70"/>
+    </row>
+    <row r="37" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="38" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D38" s="71"/>
+      <c r="E38" s="72"/>
+      <c r="F38" s="72"/>
+      <c r="G38" s="72"/>
+      <c r="H38" s="72"/>
+      <c r="I38" s="72"/>
+      <c r="J38" s="72"/>
+      <c r="K38" s="72"/>
+      <c r="L38" s="72"/>
+      <c r="M38" s="72"/>
+      <c r="N38" s="72"/>
+      <c r="O38" s="72"/>
+      <c r="P38" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="3">
